--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.10983833333333</v>
+        <v>26.92947733333333</v>
       </c>
       <c r="H2">
-        <v>81.329515</v>
+        <v>80.788432</v>
       </c>
       <c r="I2">
-        <v>0.9284397459331688</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="J2">
-        <v>0.9284397459331687</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N2">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q2">
-        <v>3381.208926096556</v>
+        <v>2464.351595788268</v>
       </c>
       <c r="R2">
-        <v>30430.88033486901</v>
+        <v>22179.16436209442</v>
       </c>
       <c r="S2">
-        <v>0.9068360144605468</v>
+        <v>0.8988113765187252</v>
       </c>
       <c r="T2">
-        <v>0.9068360144605467</v>
+        <v>0.8988113765187253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.10983833333333</v>
+        <v>26.92947733333333</v>
       </c>
       <c r="H3">
-        <v>81.329515</v>
+        <v>80.788432</v>
       </c>
       <c r="I3">
-        <v>0.9284397459331688</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="J3">
-        <v>0.9284397459331687</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q3">
-        <v>3.65202054156</v>
+        <v>3.627723750528</v>
       </c>
       <c r="R3">
-        <v>32.86818487404</v>
+        <v>32.649513754752</v>
       </c>
       <c r="S3">
-        <v>0.0009794673517733829</v>
+        <v>0.001323122635347319</v>
       </c>
       <c r="T3">
-        <v>0.0009794673517733827</v>
+        <v>0.001323122635347319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.10983833333333</v>
+        <v>26.92947733333333</v>
       </c>
       <c r="H4">
-        <v>81.329515</v>
+        <v>80.788432</v>
       </c>
       <c r="I4">
-        <v>0.9284397459331688</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="J4">
-        <v>0.9284397459331687</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q4">
-        <v>76.89918003650278</v>
+        <v>76.38757193172444</v>
       </c>
       <c r="R4">
-        <v>692.0926203285251</v>
+        <v>687.4881473855199</v>
       </c>
       <c r="S4">
-        <v>0.0206242641208486</v>
+        <v>0.02786048013368598</v>
       </c>
       <c r="T4">
-        <v>0.0206242641208486</v>
+        <v>0.02786048013368598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.57244</v>
       </c>
       <c r="I5">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="J5">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N5">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q5">
-        <v>148.5213088501067</v>
+        <v>108.9728813508578</v>
       </c>
       <c r="R5">
-        <v>1336.69177965096</v>
+        <v>980.7559321577199</v>
       </c>
       <c r="S5">
-        <v>0.03983322968911638</v>
+        <v>0.03974516690620453</v>
       </c>
       <c r="T5">
-        <v>0.03983322968911638</v>
+        <v>0.03974516690620453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.57244</v>
       </c>
       <c r="I6">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="J6">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.404136</v>
       </c>
       <c r="O6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q6">
         <v>0.16041684576</v>
@@ -818,10 +818,10 @@
         <v>1.44375161184</v>
       </c>
       <c r="S6">
-        <v>4.302359784352954E-05</v>
+        <v>5.850808228856546E-05</v>
       </c>
       <c r="T6">
-        <v>4.302359784352954E-05</v>
+        <v>5.850808228856547E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.57244</v>
       </c>
       <c r="I7">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="J7">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N7">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q7">
-        <v>3.377835300377778</v>
+        <v>3.377835300377777</v>
       </c>
       <c r="R7">
-        <v>30.4005177034</v>
+        <v>30.40051770339999</v>
       </c>
       <c r="S7">
-        <v>0.0009059312122528256</v>
+        <v>0.00123198199525379</v>
       </c>
       <c r="T7">
-        <v>0.0009059312122528258</v>
+        <v>0.00123198199525379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8986996666666668</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H8">
         <v>2.696099</v>
       </c>
       <c r="I8">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="J8">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N8">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q8">
-        <v>112.0881392744074</v>
+        <v>82.24117870059854</v>
       </c>
       <c r="R8">
-        <v>1008.793253469666</v>
+        <v>740.1706083053868</v>
       </c>
       <c r="S8">
-        <v>0.03006189907502911</v>
+        <v>0.02999543862196457</v>
       </c>
       <c r="T8">
-        <v>0.03006189907502911</v>
+        <v>0.02999543862196458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8986996666666668</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H9">
         <v>2.696099</v>
       </c>
       <c r="I9">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="J9">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.404136</v>
       </c>
       <c r="O9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q9">
         <v>0.121065629496</v>
@@ -1004,10 +1004,10 @@
         <v>1.089590665464</v>
       </c>
       <c r="S9">
-        <v>3.246965074916365E-05</v>
+        <v>4.415569810832905E-05</v>
       </c>
       <c r="T9">
-        <v>3.246965074916365E-05</v>
+        <v>4.415569810832907E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8986996666666668</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H10">
         <v>2.696099</v>
       </c>
       <c r="I10">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="J10">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N10">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q10">
-        <v>2.549232002640556</v>
+        <v>2.549232002640555</v>
       </c>
       <c r="R10">
         <v>22.943088023765</v>
       </c>
       <c r="S10">
-        <v>0.0006837008418402077</v>
+        <v>0.0009297694084216243</v>
       </c>
       <c r="T10">
-        <v>0.0006837008418402077</v>
+        <v>0.0009297694084216244</v>
       </c>
     </row>
   </sheetData>
